--- a/library/export_pc.xlsx
+++ b/library/export_pc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmis\AMS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,23 +900,23 @@
   </sheetPr>
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="79" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="79" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="23.19921875" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24">
         <v>169</v>
       </c>
@@ -921,11 +924,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="27" t="s">
         <v>4</v>
@@ -938,7 +941,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -949,7 +952,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -960,7 +963,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -986,7 +989,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="30" t="s">
         <v>11</v>
@@ -1025,7 +1028,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
         <v>0</v>
@@ -1050,7 +1053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="8" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="26"/>
       <c r="C12" s="40"/>
@@ -1069,182 +1072,182 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -1254,7 +1257,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -1264,7 +1267,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -1274,7 +1277,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -1284,7 +1287,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -1294,7 +1297,7 @@
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -1304,7 +1307,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -1314,7 +1317,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -1324,7 +1327,7 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -1334,7 +1337,7 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -1344,7 +1347,7 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -1354,7 +1357,7 @@
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -1364,7 +1367,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -1374,7 +1377,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -1384,7 +1387,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -1394,7 +1397,7 @@
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -1404,7 +1407,7 @@
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -1414,7 +1417,7 @@
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -1424,7 +1427,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -1434,7 +1437,7 @@
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -1444,7 +1447,7 @@
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -1454,7 +1457,7 @@
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -1464,7 +1467,7 @@
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -1474,7 +1477,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -1484,7 +1487,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -1494,7 +1497,7 @@
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -1504,7 +1507,7 @@
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -1514,7 +1517,7 @@
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -1524,7 +1527,7 @@
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -1534,7 +1537,7 @@
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -1544,7 +1547,7 @@
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -1554,7 +1557,7 @@
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -1564,7 +1567,7 @@
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -1574,7 +1577,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -1584,7 +1587,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -1594,7 +1597,7 @@
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -1604,7 +1607,7 @@
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -1614,7 +1617,7 @@
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -1624,7 +1627,7 @@
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -1634,7 +1637,7 @@
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -1644,7 +1647,7 @@
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -1654,7 +1657,7 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -1664,7 +1667,7 @@
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -1674,7 +1677,7 @@
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -1684,7 +1687,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -1694,7 +1697,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -1704,7 +1707,7 @@
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -1714,7 +1717,7 @@
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -1724,7 +1727,7 @@
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -1734,7 +1737,7 @@
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -1744,7 +1747,7 @@
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -1754,7 +1757,7 @@
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -1764,7 +1767,7 @@
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -1774,7 +1777,7 @@
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -1784,7 +1787,7 @@
       <c r="H82" s="20"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -1794,7 +1797,7 @@
       <c r="H83" s="20"/>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -1804,7 +1807,7 @@
       <c r="H84" s="20"/>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -1814,7 +1817,7 @@
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -1824,7 +1827,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -1834,7 +1837,7 @@
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -1844,7 +1847,7 @@
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -1854,7 +1857,7 @@
       <c r="H89" s="20"/>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -1864,7 +1867,7 @@
       <c r="H90" s="20"/>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -1874,7 +1877,7 @@
       <c r="H91" s="20"/>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -1884,7 +1887,7 @@
       <c r="H92" s="20"/>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -1894,7 +1897,7 @@
       <c r="H93" s="20"/>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -1904,7 +1907,7 @@
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -1914,7 +1917,7 @@
       <c r="H95" s="20"/>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -1924,7 +1927,7 @@
       <c r="H96" s="20"/>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -1934,7 +1937,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -1944,7 +1947,7 @@
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -1954,7 +1957,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -1964,7 +1967,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -1974,7 +1977,7 @@
       <c r="H101" s="20"/>
       <c r="I101" s="20"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -1984,7 +1987,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -1994,7 +1997,7 @@
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -2004,7 +2007,7 @@
       <c r="H104" s="20"/>
       <c r="I104" s="20"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -2014,7 +2017,7 @@
       <c r="H105" s="20"/>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -2024,7 +2027,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -2034,7 +2037,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -2044,7 +2047,7 @@
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -2054,7 +2057,7 @@
       <c r="H109" s="20"/>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -2064,7 +2067,7 @@
       <c r="H110" s="20"/>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -2074,7 +2077,7 @@
       <c r="H111" s="20"/>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -2084,7 +2087,7 @@
       <c r="H112" s="20"/>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -2094,7 +2097,7 @@
       <c r="H113" s="20"/>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -2104,7 +2107,7 @@
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -2114,7 +2117,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -2124,7 +2127,7 @@
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -2134,7 +2137,7 @@
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -2144,7 +2147,7 @@
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -2154,7 +2157,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -2164,7 +2167,7 @@
       <c r="H120" s="20"/>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -2174,7 +2177,7 @@
       <c r="H121" s="20"/>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -2184,7 +2187,7 @@
       <c r="H122" s="20"/>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -2194,7 +2197,7 @@
       <c r="H123" s="20"/>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -2204,7 +2207,7 @@
       <c r="H124" s="20"/>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -2214,7 +2217,7 @@
       <c r="H125" s="20"/>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -2224,7 +2227,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -2234,7 +2237,7 @@
       <c r="H127" s="20"/>
       <c r="I127" s="20"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -2244,7 +2247,7 @@
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -2254,7 +2257,7 @@
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -2264,7 +2267,7 @@
       <c r="H130" s="20"/>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -2274,7 +2277,7 @@
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -2284,7 +2287,7 @@
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -2294,7 +2297,7 @@
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -2304,7 +2307,7 @@
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -2314,7 +2317,7 @@
       <c r="H135" s="20"/>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -2324,7 +2327,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -2334,7 +2337,7 @@
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -2344,7 +2347,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -2354,7 +2357,7 @@
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -2364,7 +2367,7 @@
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -2374,7 +2377,7 @@
       <c r="H141" s="20"/>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -2384,7 +2387,7 @@
       <c r="H142" s="20"/>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -2394,7 +2397,7 @@
       <c r="H143" s="20"/>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -2404,7 +2407,7 @@
       <c r="H144" s="20"/>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -2414,7 +2417,7 @@
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -2424,7 +2427,7 @@
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -2434,7 +2437,7 @@
       <c r="H147" s="20"/>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -2444,7 +2447,7 @@
       <c r="H148" s="20"/>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -2454,7 +2457,7 @@
       <c r="H149" s="20"/>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -2464,7 +2467,7 @@
       <c r="H150" s="20"/>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -2474,7 +2477,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -2484,7 +2487,7 @@
       <c r="H152" s="20"/>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -2494,7 +2497,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -2504,7 +2507,7 @@
       <c r="H154" s="20"/>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -2514,7 +2517,7 @@
       <c r="H155" s="20"/>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -2524,7 +2527,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
@@ -2534,7 +2537,7 @@
       <c r="H157" s="20"/>
       <c r="I157" s="20"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
@@ -2544,7 +2547,7 @@
       <c r="H158" s="20"/>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -2554,7 +2557,7 @@
       <c r="H159" s="20"/>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
@@ -2564,7 +2567,7 @@
       <c r="H160" s="20"/>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
@@ -2574,7 +2577,7 @@
       <c r="H161" s="20"/>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -2584,7 +2587,7 @@
       <c r="H162" s="20"/>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -2594,7 +2597,7 @@
       <c r="H163" s="20"/>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
@@ -2604,7 +2607,7 @@
       <c r="H164" s="20"/>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
@@ -2614,7 +2617,7 @@
       <c r="H165" s="20"/>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
@@ -2624,7 +2627,7 @@
       <c r="H166" s="20"/>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -2634,7 +2637,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -2644,7 +2647,7 @@
       <c r="H168" s="20"/>
       <c r="I168" s="20"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
@@ -2654,7 +2657,7 @@
       <c r="H169" s="20"/>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -2664,7 +2667,7 @@
       <c r="H170" s="20"/>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
@@ -2674,7 +2677,7 @@
       <c r="H171" s="20"/>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
